--- a/Exemples/Kaplan.xlsx
+++ b/Exemples/Kaplan.xlsx
@@ -445,7 +445,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +462,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
